--- a/Table 1. Student enrolments by school affiliation, Australia, 2017 to 2021.xlsx
+++ b/Table 1. Student enrolments by school affiliation, Australia, 2017 to 2021.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225916C2-947B-B142-8B7A-EBCD263D6A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCD84706-5B2E-BB46-8D44-246AA6A8E477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="1700" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,28 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2017-21 (% change)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>Government</t>
   </si>
@@ -47,32 +26,26 @@
     <t>Independent</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Student enrolments by school affiliation</t>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>School</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -100,12 +73,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,140 +417,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="6" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="6" width="9.1640625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2622755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2629143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2594830</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2558169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2524865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B7" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C7" s="1">
+        <v>787181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="1">
+        <v>778605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C9" s="1">
+        <v>769719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C10" s="1">
+        <v>765735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C11" s="1">
+        <v>766870</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2622755</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2629143</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2594830</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2558169</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2524865</v>
-      </c>
-      <c r="G3" s="3">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>787181</v>
-      </c>
-      <c r="C4" s="2">
-        <v>778605</v>
-      </c>
-      <c r="D4" s="2">
-        <v>769719</v>
-      </c>
-      <c r="E4" s="2">
-        <v>765735</v>
-      </c>
-      <c r="F4" s="2">
-        <v>766870</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="B12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C12" s="1">
         <v>620781</v>
       </c>
-      <c r="C5" s="2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="1">
         <v>599226</v>
       </c>
-      <c r="D5" s="2">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C14" s="1">
         <v>584262</v>
       </c>
-      <c r="E5" s="2">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C15" s="1">
         <v>569930</v>
       </c>
-      <c r="F5" s="2">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C16" s="1">
         <v>557490</v>
       </c>
-      <c r="G5" s="3">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4030717</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4006974</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3948811</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3893834</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3849225</v>
-      </c>
-      <c r="G6" s="3">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
